--- a/public/projects/CERTIFICACION MO-211/Auction.xlsx
+++ b/public/projects/CERTIFICACION MO-211/Auction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teacher Sergio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T Irvin Pineda\Desktop\mo211-simulator (2)\mo211-simulator\public\projects\CERTIFICACION MO-211\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7A7F44-716C-4DA1-AD64-25959ED381B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3880ED-A6F5-4BEF-91D9-BC6C584D42E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{A70F1EB2-10DE-45BA-8267-D2C472CC5416}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="7785" activeTab="1" xr2:uid="{A70F1EB2-10DE-45BA-8267-D2C472CC5416}"/>
   </bookViews>
   <sheets>
     <sheet name="Auction" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -469,7 +469,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -533,9 +533,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -562,8 +559,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -966,7 +964,9 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EF795738-CC17-40EB-9A38-0E676BDF0A92}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1014,9 +1014,13 @@
     <tableColumn id="1" xr3:uid="{526266C5-3F26-44A5-9125-6145CF95C6F6}" name="Item ID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{911033E2-42DE-4F85-9531-D95C442F71BC}" name="Quantity" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{F4598226-E393-4614-90BB-64998CD1E398}" name="Cost" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{474E347C-F240-41B0-95B2-DFCDC464485F}" name="Markup" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{474E347C-F240-41B0-95B2-DFCDC464485F}" name="Markup" dataDxfId="2" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table13[[#This Row],[Profit]]/Table13[[#This Row],[Cost]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{0686A95A-354C-4F7A-B224-FB6FC2B752AE}" name="Price" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{E4A72E95-7D4A-4985-83C9-41E4A516764A}" name="Profit" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{E4A72E95-7D4A-4985-83C9-41E4A516764A}" name="Profit" dataDxfId="0">
+      <calculatedColumnFormula>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1333,16 +1337,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2221,7 +2225,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,16 +2238,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2282,6 +2286,7 @@
         <v>3680</v>
       </c>
       <c r="F4" s="29">
+        <f>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</f>
         <v>480</v>
       </c>
     </row>
@@ -2302,6 +2307,7 @@
         <v>14400</v>
       </c>
       <c r="F5" s="29">
+        <f>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</f>
         <v>2400</v>
       </c>
     </row>
@@ -2322,6 +2328,7 @@
         <v>18720</v>
       </c>
       <c r="F6" s="29">
+        <f>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</f>
         <v>2720</v>
       </c>
     </row>
@@ -2342,7 +2349,8 @@
         <v>5928</v>
       </c>
       <c r="F7" s="29">
-        <v>728</v>
+        <f>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</f>
+        <v>728.00000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2362,6 +2370,7 @@
         <v>7140</v>
       </c>
       <c r="F8" s="29">
+        <f>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</f>
         <v>1140</v>
       </c>
     </row>
@@ -2382,6 +2391,7 @@
         <v>2360</v>
       </c>
       <c r="F9" s="29">
+        <f>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</f>
         <v>360</v>
       </c>
     </row>
@@ -2395,13 +2405,14 @@
       <c r="C10" s="32">
         <v>1200</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="27">
         <v>0.1</v>
       </c>
       <c r="E10" s="28">
         <v>1320</v>
       </c>
       <c r="F10" s="29">
+        <f>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</f>
         <v>120</v>
       </c>
     </row>
@@ -2415,13 +2426,14 @@
       <c r="C11" s="28">
         <v>12000</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="27">
         <v>0.13</v>
       </c>
       <c r="E11" s="28">
         <v>13560</v>
       </c>
       <c r="F11" s="29">
+        <f>Table13[[#This Row],[Cost]]*Table13[[#This Row],[Markup]]</f>
         <v>1560</v>
       </c>
     </row>
@@ -2431,6 +2443,9 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4:D10" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
